--- a/results/CNN Models/full_dataset/GoogleNet/result_for_GoogleNet.xlsx
+++ b/results/CNN Models/full_dataset/GoogleNet/result_for_GoogleNet.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9477611940298507</v>
+        <v>0.9769230769230769</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9731800766283525</v>
+        <v>0.9883268482490273</v>
       </c>
       <c r="E2" t="n">
         <v>254</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9441340782122905</v>
+        <v>0.9439775910364145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9657142857142857</v>
+        <v>0.9628571428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9548022598870056</v>
+        <v>0.9533239038189534</v>
       </c>
       <c r="E3" t="n">
         <v>350</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.935064935064935</v>
+        <v>0.8795180722891566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9863013698630136</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="E4" t="n">
         <v>73</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9985074626865672</v>
+        <v>0.9985185185185185</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9766423357664233</v>
+        <v>0.983941605839416</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9874538745387453</v>
+        <v>0.9911764705882353</v>
       </c>
       <c r="E5" t="n">
         <v>685</v>
@@ -541,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.746268656716418</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9503386004514672</v>
+        <v>0.9418103448275862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8825995807127882</v>
+        <v>0.9161425576519916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9152173913043479</v>
+        <v>0.9287991498405951</v>
       </c>
       <c r="E7" t="n">
         <v>477</v>
@@ -579,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9880952380952381</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9940119760479041</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>84</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="E9" t="n">
         <v>46</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9058823529411765</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8850574712643678</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8953488372093024</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="E10" t="n">
         <v>87</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8522427440633246</v>
+        <v>0.9057142857142857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9584569732937686</v>
+        <v>0.9406528189910979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9022346368715084</v>
+        <v>0.9228529839883551</v>
       </c>
       <c r="E11" t="n">
         <v>337</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.946611909650924</v>
+        <v>0.95564681724846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.946611909650924</v>
+        <v>0.95564681724846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.946611909650924</v>
+        <v>0.95564681724846</v>
       </c>
       <c r="E12" t="n">
-        <v>0.946611909650924</v>
+        <v>0.95564681724846</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9448824984470889</v>
+        <v>0.9479045597454967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9172887958643633</v>
+        <v>0.9326654023961766</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9253248891999284</v>
+        <v>0.9369861908979233</v>
       </c>
       <c r="E13" t="n">
         <v>2435</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9490060825919809</v>
+        <v>0.9565461485141572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.946611909650924</v>
+        <v>0.95564681724846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9460942404833228</v>
+        <v>0.9553689076789773</v>
       </c>
       <c r="E14" t="n">
         <v>2435</v>
